--- a/Intent_Prediction/audio/data/multitask_extendintent_ds.xlsx
+++ b/Intent_Prediction/audio/data/multitask_extendintent_ds.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20051248d\Documents\GitHub\Medic_Grabber\Intent_Prediction\audio\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borisPMC\Documents\GitHub\Medic_Grabber\Intent_Prediction\audio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC81FF7-1B41-4832-BFEF-DA06D78866FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C8D1C1-6698-49F7-B434-FB043610B0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="1686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3533" uniqueCount="1692">
   <si>
     <t>Language</t>
   </si>
@@ -5092,24 +5114,49 @@
     <t>Metfortmin</t>
   </si>
   <si>
-    <t>Occurance</t>
-  </si>
-  <si>
     <t>Atorvastatin</t>
   </si>
   <si>
     <t>Amitriptyline</t>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medicine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER Tag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5121,35 +5168,29 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -5173,11 +5214,113 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5185,17 +5328,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5213,7 +5399,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5383,7 +5569,63 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-HK"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-HK"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -11294,7 +11536,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4DA9226-3466-4166-96EE-EC49C8F9ED78}" name="PivotTable14" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4DA9226-3466-4166-96EE-EC49C8F9ED78}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:C11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -11386,7 +11628,7 @@
   <dataFields count="1">
     <dataField name="Count of file_name" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -11404,6 +11646,18 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -11709,10 +11963,10 @@
   <dimension ref="A3:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -11721,7 +11975,7 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1679</v>
       </c>
@@ -11729,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -11740,84 +11994,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1671</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>67</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1667</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>23</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>90</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1669</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1678</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>131</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1674</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1676</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1680</v>
       </c>
@@ -11830,115 +12084,139 @@
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="12" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G23" s="3" cm="1">
+        <f t="array" ref="G23">SUM(LEN(Sheet1!$E$344:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$344:$E$701,"1","")))/LEN("1") + SUM(LEN(Sheet1!$E$344:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$344:$E$701,"2","")))/LEN("2")</f>
+        <v>139</v>
+      </c>
+      <c r="H23" s="3">
+        <f>I23-G23</f>
+        <v>231</v>
+      </c>
+      <c r="I23" s="7" cm="1">
+        <f t="array" ref="I23">SUM(LEN(Sheet1!$E$2:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$2:$E$701,"1","")))/LEN("1") + SUM(LEN(Sheet1!$E$2:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$2:$E$701,"2","")))/LEN("2")</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="6" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G24" s="3" cm="1">
+        <f t="array" ref="G24">SUM(LEN(Sheet1!$E$344:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$344:$E$701,"3","")))/LEN("3") + SUM(LEN(Sheet1!$E$344:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$344:$E$701,"4","")))/LEN("4")</f>
+        <v>73</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" ref="H24:H26" si="0">I24-G24</f>
+        <v>134</v>
+      </c>
+      <c r="I24" s="7" cm="1">
+        <f t="array" ref="I24">SUM(LEN(Sheet1!$E$2:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$2:$E$701,"3","")))/LEN("3") + SUM(LEN(Sheet1!$E$2:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$2:$E$701,"4","")))/LEN("4")</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="6" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>1683</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="G25" s="3" cm="1">
+        <f t="array" ref="G25">SUM(LEN(Sheet1!$E$344:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$344:$E$701,"5","")))/LEN("5") + SUM(LEN(Sheet1!$E$344:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$344:$E$701,"6","")))/LEN("6")</f>
+        <v>150</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="I25" s="7" cm="1">
+        <f t="array" ref="I25">SUM(LEN(Sheet1!$E$2:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$2:$E$701,"5","")))/LEN("5") + SUM(LEN(Sheet1!$E$2:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$2:$E$701,"6","")))/LEN("6")</f>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="17" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G26" s="8" cm="1">
+        <f t="array" ref="G26">SUM(LEN(Sheet1!$E$344:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$344:$E$701,"7","")))/LEN("7") + SUM(LEN(Sheet1!$E$344:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$344:$E$701,"8","")))/LEN("8")</f>
+        <v>59</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="I26" s="9" cm="1">
+        <f t="array" ref="I26">SUM(LEN(Sheet1!$E$2:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$2:$E$701,"7","")))/LEN("7") + SUM(LEN(Sheet1!$E$2:$E$701)-LEN(SUBSTITUTE(Sheet1!$E$2:$E$701,"8","")))/LEN("8")</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1681</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ref="G23:G25" si="0">I23-H23</f>
-        <v>71</v>
-      </c>
-      <c r="H23">
-        <v>73</v>
-      </c>
-      <c r="I23">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1682</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H24">
-        <v>73</v>
-      </c>
-      <c r="I24">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1684</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="H25">
-        <v>83</v>
-      </c>
-      <c r="I25">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="E26">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1685</v>
-      </c>
-      <c r="G26">
-        <f>I26-H26</f>
-        <v>51</v>
-      </c>
-      <c r="H26">
-        <v>59</v>
-      </c>
-      <c r="I26">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="F27" t="s">
-        <v>1680</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="10"/>
+      <c r="G27" s="8">
         <f>SUM(G23:G26)</f>
-        <v>219</v>
-      </c>
-      <c r="H27">
+        <v>421</v>
+      </c>
+      <c r="H27" s="8">
         <f>SUM(H23:H26)</f>
-        <v>288</v>
-      </c>
-      <c r="I27">
-        <f>SUM(I23:I26)</f>
-        <v>507</v>
+        <v>617</v>
+      </c>
+      <c r="I27" s="9">
+        <f>SUM(G27:H27)</f>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="E27:F27"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
   <drawing r:id="rId3"/>
@@ -11950,11 +12228,11 @@
   <dimension ref="A1:E701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E343"/>
+      <pane ySplit="1" topLeftCell="A669" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A344" sqref="A344:E676"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
@@ -11962,7 +12240,7 @@
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11979,7 +12257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -11996,7 +12274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -12013,7 +12291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -12030,7 +12308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -12047,7 +12325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -12064,7 +12342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12081,7 +12359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -12098,7 +12376,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -12115,7 +12393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -12132,7 +12410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -12149,7 +12427,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -12166,7 +12444,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -12183,7 +12461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -12200,7 +12478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -12217,7 +12495,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -12234,7 +12512,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -12251,7 +12529,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -12268,7 +12546,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -12285,7 +12563,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -12302,7 +12580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -12319,7 +12597,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -12336,7 +12614,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -12353,7 +12631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -12370,7 +12648,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -12387,7 +12665,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -12404,7 +12682,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -12421,7 +12699,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -12438,7 +12716,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -12455,7 +12733,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -12472,7 +12750,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -12489,7 +12767,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -12506,7 +12784,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -12523,7 +12801,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -12540,7 +12818,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -12557,7 +12835,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -12574,7 +12852,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -12591,7 +12869,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -12608,7 +12886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -12625,7 +12903,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -12642,7 +12920,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -12659,7 +12937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -12676,7 +12954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -12693,7 +12971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -12710,7 +12988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -12727,7 +13005,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -12744,7 +13022,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -12761,7 +13039,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -12778,7 +13056,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -12795,7 +13073,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -12812,7 +13090,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -12829,7 +13107,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -12846,7 +13124,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -12863,7 +13141,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -12880,7 +13158,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -12897,7 +13175,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -12914,7 +13192,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -12931,7 +13209,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -12948,7 +13226,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -12965,7 +13243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -12982,7 +13260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -12999,7 +13277,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -13016,7 +13294,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -13033,7 +13311,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -13050,7 +13328,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -13067,7 +13345,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -13084,7 +13362,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -13101,7 +13379,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -13118,7 +13396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -13135,7 +13413,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -13152,7 +13430,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -13169,7 +13447,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -13186,7 +13464,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -13203,7 +13481,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -13220,7 +13498,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -13237,7 +13515,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -13254,7 +13532,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -13271,7 +13549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -13288,7 +13566,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -13305,7 +13583,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -13322,7 +13600,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -13339,7 +13617,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -13356,7 +13634,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -13373,7 +13651,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -13390,7 +13668,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -13407,7 +13685,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -13424,7 +13702,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -13441,7 +13719,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -13458,7 +13736,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -13475,7 +13753,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -13492,7 +13770,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -13509,7 +13787,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -13526,7 +13804,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -13543,7 +13821,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -13560,7 +13838,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -13577,7 +13855,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -13594,7 +13872,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -13611,7 +13889,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -13628,7 +13906,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -13645,7 +13923,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -13662,7 +13940,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -13679,7 +13957,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -13696,7 +13974,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -13713,7 +13991,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -13730,7 +14008,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -13747,7 +14025,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -13764,7 +14042,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -13781,7 +14059,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -13798,7 +14076,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -13815,7 +14093,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -13832,7 +14110,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -13849,7 +14127,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -13866,7 +14144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -13883,7 +14161,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -13900,7 +14178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -13917,7 +14195,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -13934,7 +14212,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -13951,7 +14229,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -13968,7 +14246,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -13985,7 +14263,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -14002,7 +14280,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -14019,7 +14297,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -14036,7 +14314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -14053,7 +14331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -14070,7 +14348,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -14087,7 +14365,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -14104,7 +14382,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -14121,7 +14399,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -14138,7 +14416,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -14155,7 +14433,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -14172,7 +14450,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -14189,7 +14467,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -14206,7 +14484,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -14223,7 +14501,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -14240,7 +14518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -14257,7 +14535,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -14274,7 +14552,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -14291,7 +14569,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -14308,7 +14586,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -14325,7 +14603,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -14342,7 +14620,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -14359,7 +14637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -14376,7 +14654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -14393,7 +14671,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -14410,7 +14688,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -14427,7 +14705,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -14444,7 +14722,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -14461,7 +14739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -14478,7 +14756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -14495,7 +14773,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -14512,7 +14790,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -14529,7 +14807,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -14546,7 +14824,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -14563,7 +14841,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -14580,7 +14858,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -14597,7 +14875,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -14614,7 +14892,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -14631,7 +14909,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -14648,7 +14926,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -14665,7 +14943,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -14682,7 +14960,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -14699,7 +14977,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -14716,7 +14994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -14733,7 +15011,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -14750,7 +15028,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -14767,7 +15045,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -14784,7 +15062,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -14801,7 +15079,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -14818,7 +15096,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -14835,7 +15113,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -14852,7 +15130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -14869,7 +15147,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -14886,7 +15164,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -14903,7 +15181,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -14920,7 +15198,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -14937,7 +15215,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -14954,7 +15232,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -14971,7 +15249,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -14988,7 +15266,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -15005,7 +15283,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -15022,7 +15300,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -15039,7 +15317,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -15056,7 +15334,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -15073,7 +15351,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -15090,7 +15368,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -15107,7 +15385,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -15124,7 +15402,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -15141,7 +15419,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -15158,7 +15436,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -15175,7 +15453,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -15192,7 +15470,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -15209,7 +15487,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -15226,7 +15504,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -15243,7 +15521,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -15260,7 +15538,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -15277,7 +15555,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -15294,7 +15572,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -15311,7 +15589,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -15328,7 +15606,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -15345,7 +15623,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -15362,7 +15640,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -15379,7 +15657,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -15396,7 +15674,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -15413,7 +15691,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -15430,7 +15708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -15447,7 +15725,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -15464,7 +15742,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -15481,7 +15759,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -15498,7 +15776,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -15515,7 +15793,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -15532,7 +15810,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -15549,7 +15827,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -15566,7 +15844,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -15583,7 +15861,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -15600,7 +15878,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -15617,7 +15895,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -15634,7 +15912,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -15651,7 +15929,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -15668,7 +15946,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -15685,7 +15963,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -15702,7 +15980,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -15719,7 +15997,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -15736,7 +16014,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -15753,7 +16031,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -15770,7 +16048,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -15787,7 +16065,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -15804,7 +16082,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -15821,7 +16099,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -15838,7 +16116,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -15855,7 +16133,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -15872,7 +16150,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -15889,7 +16167,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -15906,7 +16184,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -15923,7 +16201,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -15940,7 +16218,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -15957,7 +16235,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -15974,7 +16252,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -15991,7 +16269,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -16008,7 +16286,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -16025,7 +16303,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -16042,7 +16320,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -16059,7 +16337,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -16076,7 +16354,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -16093,7 +16371,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -16110,7 +16388,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -16127,7 +16405,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -16144,7 +16422,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -16161,7 +16439,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -16178,7 +16456,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -16195,7 +16473,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -16212,7 +16490,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -16229,7 +16507,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -16246,7 +16524,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -16263,7 +16541,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -16280,7 +16558,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -16297,7 +16575,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -16314,7 +16592,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -16331,7 +16609,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -16348,7 +16626,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -16365,7 +16643,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -16382,7 +16660,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -16399,7 +16677,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>8</v>
       </c>
@@ -16416,7 +16694,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>8</v>
       </c>
@@ -16433,7 +16711,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -16450,7 +16728,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -16467,7 +16745,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -16484,7 +16762,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -16501,7 +16779,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -16518,7 +16796,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>8</v>
       </c>
@@ -16535,7 +16813,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>8</v>
       </c>
@@ -16552,7 +16830,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -16569,7 +16847,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -16586,7 +16864,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -16603,7 +16881,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>8</v>
       </c>
@@ -16620,7 +16898,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -16637,7 +16915,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>8</v>
       </c>
@@ -16654,7 +16932,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>8</v>
       </c>
@@ -16671,7 +16949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>8</v>
       </c>
@@ -16688,7 +16966,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>8</v>
       </c>
@@ -16705,7 +16983,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -16722,7 +17000,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -16739,7 +17017,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -16756,7 +17034,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -16773,7 +17051,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>8</v>
       </c>
@@ -16790,7 +17068,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -16807,7 +17085,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -16824,7 +17102,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -16841,7 +17119,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>8</v>
       </c>
@@ -16858,7 +17136,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>8</v>
       </c>
@@ -16875,7 +17153,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -16892,7 +17170,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>8</v>
       </c>
@@ -16909,7 +17187,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -16926,7 +17204,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>8</v>
       </c>
@@ -16943,7 +17221,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -16960,7 +17238,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -16977,7 +17255,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>8</v>
       </c>
@@ -16994,7 +17272,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>8</v>
       </c>
@@ -17011,7 +17289,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>8</v>
       </c>
@@ -17028,7 +17306,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -17045,7 +17323,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -17062,7 +17340,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -17079,7 +17357,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>8</v>
       </c>
@@ -17096,7 +17374,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -17113,7 +17391,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>8</v>
       </c>
@@ -17130,7 +17408,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -17147,7 +17425,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>8</v>
       </c>
@@ -17164,7 +17442,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>8</v>
       </c>
@@ -17181,7 +17459,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>8</v>
       </c>
@@ -17198,7 +17476,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>8</v>
       </c>
@@ -17215,7 +17493,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>8</v>
       </c>
@@ -17232,7 +17510,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>8</v>
       </c>
@@ -17249,7 +17527,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>8</v>
       </c>
@@ -17266,7 +17544,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>8</v>
       </c>
@@ -17283,7 +17561,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -17300,7 +17578,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -17317,7 +17595,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>8</v>
       </c>
@@ -17334,7 +17612,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>8</v>
       </c>
@@ -17351,7 +17629,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>8</v>
       </c>
@@ -17368,7 +17646,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>8</v>
       </c>
@@ -17385,7 +17663,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -17402,7 +17680,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>8</v>
       </c>
@@ -17419,7 +17697,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>8</v>
       </c>
@@ -17436,7 +17714,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>8</v>
       </c>
@@ -17453,7 +17731,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>8</v>
       </c>
@@ -17470,7 +17748,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>8</v>
       </c>
@@ -17487,7 +17765,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>8</v>
       </c>
@@ -17504,7 +17782,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>8</v>
       </c>
@@ -17521,7 +17799,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>8</v>
       </c>
@@ -17538,7 +17816,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>8</v>
       </c>
@@ -17555,7 +17833,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -17572,7 +17850,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>8</v>
       </c>
@@ -17589,7 +17867,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>8</v>
       </c>
@@ -17606,7 +17884,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>8</v>
       </c>
@@ -17623,7 +17901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>8</v>
       </c>
@@ -17640,7 +17918,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>8</v>
       </c>
@@ -17657,7 +17935,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>8</v>
       </c>
@@ -17674,7 +17952,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>8</v>
       </c>
@@ -17691,7 +17969,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>8</v>
       </c>
@@ -17708,7 +17986,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>8</v>
       </c>
@@ -17725,7 +18003,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>8</v>
       </c>
@@ -17742,7 +18020,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>8</v>
       </c>
@@ -17759,7 +18037,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>8</v>
       </c>
@@ -17776,7 +18054,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>8</v>
       </c>
@@ -17793,7 +18071,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>4</v>
       </c>
@@ -17810,7 +18088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>4</v>
       </c>
@@ -17827,7 +18105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>4</v>
       </c>
@@ -17844,7 +18122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>4</v>
       </c>
@@ -17861,7 +18139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>4</v>
       </c>
@@ -17878,7 +18156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>4</v>
       </c>
@@ -17895,7 +18173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -17912,7 +18190,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -17929,7 +18207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>4</v>
       </c>
@@ -17946,7 +18224,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>4</v>
       </c>
@@ -17963,7 +18241,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -17980,7 +18258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>4</v>
       </c>
@@ -17997,7 +18275,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>4</v>
       </c>
@@ -18014,7 +18292,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -18031,7 +18309,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -18048,7 +18326,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -18065,7 +18343,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>4</v>
       </c>
@@ -18082,7 +18360,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -18099,7 +18377,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -18116,7 +18394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -18133,7 +18411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>4</v>
       </c>
@@ -18150,7 +18428,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>4</v>
       </c>
@@ -18167,7 +18445,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>4</v>
       </c>
@@ -18184,7 +18462,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -18201,7 +18479,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>4</v>
       </c>
@@ -18218,7 +18496,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -18235,7 +18513,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -18252,7 +18530,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>4</v>
       </c>
@@ -18269,7 +18547,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>4</v>
       </c>
@@ -18286,7 +18564,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>4</v>
       </c>
@@ -18303,7 +18581,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -18320,7 +18598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>4</v>
       </c>
@@ -18337,7 +18615,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -18354,7 +18632,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>4</v>
       </c>
@@ -18371,7 +18649,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -18388,7 +18666,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>4</v>
       </c>
@@ -18405,7 +18683,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>4</v>
       </c>
@@ -18422,7 +18700,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>4</v>
       </c>
@@ -18439,7 +18717,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>4</v>
       </c>
@@ -18456,7 +18734,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>4</v>
       </c>
@@ -18473,7 +18751,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>4</v>
       </c>
@@ -18490,7 +18768,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>4</v>
       </c>
@@ -18507,7 +18785,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -18524,7 +18802,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>4</v>
       </c>
@@ -18541,7 +18819,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>4</v>
       </c>
@@ -18558,7 +18836,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>4</v>
       </c>
@@ -18575,7 +18853,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>4</v>
       </c>
@@ -18592,7 +18870,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -18609,7 +18887,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -18626,7 +18904,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>4</v>
       </c>
@@ -18643,7 +18921,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>4</v>
       </c>
@@ -18660,7 +18938,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>4</v>
       </c>
@@ -18677,7 +18955,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>4</v>
       </c>
@@ -18694,7 +18972,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>4</v>
       </c>
@@ -18711,7 +18989,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>4</v>
       </c>
@@ -18728,7 +19006,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>4</v>
       </c>
@@ -18745,7 +19023,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>4</v>
       </c>
@@ -18762,7 +19040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>4</v>
       </c>
@@ -18779,7 +19057,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>4</v>
       </c>
@@ -18796,7 +19074,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>4</v>
       </c>
@@ -18813,7 +19091,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>4</v>
       </c>
@@ -18830,7 +19108,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>4</v>
       </c>
@@ -18847,7 +19125,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>4</v>
       </c>
@@ -18864,7 +19142,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>4</v>
       </c>
@@ -18881,7 +19159,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>4</v>
       </c>
@@ -18898,7 +19176,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>4</v>
       </c>
@@ -18915,7 +19193,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>4</v>
       </c>
@@ -18932,7 +19210,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>4</v>
       </c>
@@ -18949,7 +19227,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>4</v>
       </c>
@@ -18966,7 +19244,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>4</v>
       </c>
@@ -18983,7 +19261,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>4</v>
       </c>
@@ -19000,7 +19278,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>4</v>
       </c>
@@ -19017,7 +19295,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>4</v>
       </c>
@@ -19034,7 +19312,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>4</v>
       </c>
@@ -19051,7 +19329,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>4</v>
       </c>
@@ -19068,7 +19346,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>4</v>
       </c>
@@ -19085,7 +19363,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>4</v>
       </c>
@@ -19102,7 +19380,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>4</v>
       </c>
@@ -19119,7 +19397,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>4</v>
       </c>
@@ -19136,7 +19414,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>4</v>
       </c>
@@ -19153,7 +19431,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>4</v>
       </c>
@@ -19170,7 +19448,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>4</v>
       </c>
@@ -19187,7 +19465,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>4</v>
       </c>
@@ -19204,7 +19482,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>4</v>
       </c>
@@ -19221,7 +19499,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>4</v>
       </c>
@@ -19238,7 +19516,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>4</v>
       </c>
@@ -19255,7 +19533,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>4</v>
       </c>
@@ -19272,7 +19550,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>4</v>
       </c>
@@ -19289,7 +19567,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>4</v>
       </c>
@@ -19306,7 +19584,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>4</v>
       </c>
@@ -19323,7 +19601,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>4</v>
       </c>
@@ -19340,7 +19618,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>4</v>
       </c>
@@ -19357,7 +19635,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>4</v>
       </c>
@@ -19374,7 +19652,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>4</v>
       </c>
@@ -19391,7 +19669,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>4</v>
       </c>
@@ -19408,7 +19686,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>4</v>
       </c>
@@ -19425,7 +19703,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>4</v>
       </c>
@@ -19442,7 +19720,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>4</v>
       </c>
@@ -19459,7 +19737,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>4</v>
       </c>
@@ -19476,7 +19754,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>4</v>
       </c>
@@ -19493,7 +19771,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>4</v>
       </c>
@@ -19510,7 +19788,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>4</v>
       </c>
@@ -19527,7 +19805,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>4</v>
       </c>
@@ -19544,7 +19822,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>4</v>
       </c>
@@ -19561,7 +19839,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>4</v>
       </c>
@@ -19578,7 +19856,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>4</v>
       </c>
@@ -19595,7 +19873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -19612,7 +19890,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>4</v>
       </c>
@@ -19629,7 +19907,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>4</v>
       </c>
@@ -19646,7 +19924,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>4</v>
       </c>
@@ -19663,7 +19941,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>4</v>
       </c>
@@ -19680,7 +19958,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>4</v>
       </c>
@@ -19697,7 +19975,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>4</v>
       </c>
@@ -19714,7 +19992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>4</v>
       </c>
@@ -19731,7 +20009,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>4</v>
       </c>
@@ -19748,7 +20026,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>4</v>
       </c>
@@ -19765,7 +20043,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>4</v>
       </c>
@@ -19782,7 +20060,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>4</v>
       </c>
@@ -19799,7 +20077,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>4</v>
       </c>
@@ -19816,7 +20094,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>4</v>
       </c>
@@ -19833,7 +20111,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>4</v>
       </c>
@@ -19850,7 +20128,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>4</v>
       </c>
@@ -19867,7 +20145,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>4</v>
       </c>
@@ -19884,7 +20162,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>4</v>
       </c>
@@ -19901,7 +20179,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>4</v>
       </c>
@@ -19918,7 +20196,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>4</v>
       </c>
@@ -19935,7 +20213,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>4</v>
       </c>
@@ -19952,7 +20230,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>4</v>
       </c>
@@ -19969,7 +20247,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>4</v>
       </c>
@@ -19986,7 +20264,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>4</v>
       </c>
@@ -20003,7 +20281,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>4</v>
       </c>
@@ -20020,7 +20298,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>4</v>
       </c>
@@ -20037,7 +20315,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>4</v>
       </c>
@@ -20054,7 +20332,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>4</v>
       </c>
@@ -20071,7 +20349,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>4</v>
       </c>
@@ -20088,7 +20366,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>4</v>
       </c>
@@ -20105,7 +20383,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>4</v>
       </c>
@@ -20122,7 +20400,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>4</v>
       </c>
@@ -20139,7 +20417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>4</v>
       </c>
@@ -20156,7 +20434,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>4</v>
       </c>
@@ -20173,7 +20451,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>4</v>
       </c>
@@ -20190,7 +20468,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>4</v>
       </c>
@@ -20207,7 +20485,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>4</v>
       </c>
@@ -20224,7 +20502,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>4</v>
       </c>
@@ -20241,7 +20519,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>4</v>
       </c>
@@ -20258,7 +20536,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>4</v>
       </c>
@@ -20275,7 +20553,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>4</v>
       </c>
@@ -20292,7 +20570,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>4</v>
       </c>
@@ -20309,7 +20587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>4</v>
       </c>
@@ -20326,7 +20604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>4</v>
       </c>
@@ -20343,7 +20621,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>4</v>
       </c>
@@ -20360,7 +20638,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>4</v>
       </c>
@@ -20377,7 +20655,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>4</v>
       </c>
@@ -20394,7 +20672,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>4</v>
       </c>
@@ -20411,7 +20689,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>4</v>
       </c>
@@ -20428,7 +20706,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>4</v>
       </c>
@@ -20445,7 +20723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>4</v>
       </c>
@@ -20462,7 +20740,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>4</v>
       </c>
@@ -20479,7 +20757,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>4</v>
       </c>
@@ -20496,7 +20774,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>4</v>
       </c>
@@ -20513,7 +20791,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>4</v>
       </c>
@@ -20530,7 +20808,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>4</v>
       </c>
@@ -20547,7 +20825,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>4</v>
       </c>
@@ -20564,7 +20842,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>4</v>
       </c>
@@ -20581,7 +20859,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>4</v>
       </c>
@@ -20598,7 +20876,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>4</v>
       </c>
@@ -20615,7 +20893,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>4</v>
       </c>
@@ -20632,7 +20910,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>4</v>
       </c>
@@ -20649,7 +20927,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>4</v>
       </c>
@@ -20666,7 +20944,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>4</v>
       </c>
@@ -20683,7 +20961,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>4</v>
       </c>
@@ -20700,7 +20978,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>4</v>
       </c>
@@ -20717,7 +20995,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>4</v>
       </c>
@@ -20734,7 +21012,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>4</v>
       </c>
@@ -20751,7 +21029,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>4</v>
       </c>
@@ -20768,7 +21046,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>4</v>
       </c>
@@ -20785,7 +21063,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>4</v>
       </c>
@@ -20802,7 +21080,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>4</v>
       </c>
@@ -20819,7 +21097,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>4</v>
       </c>
@@ -20836,7 +21114,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>4</v>
       </c>
@@ -20853,7 +21131,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>4</v>
       </c>
@@ -20870,7 +21148,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>4</v>
       </c>
@@ -20887,7 +21165,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>4</v>
       </c>
@@ -20904,7 +21182,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>4</v>
       </c>
@@ -20921,7 +21199,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>4</v>
       </c>
@@ -20938,7 +21216,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>4</v>
       </c>
@@ -20955,7 +21233,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>4</v>
       </c>
@@ -20972,7 +21250,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>4</v>
       </c>
@@ -20989,7 +21267,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>4</v>
       </c>
@@ -21006,7 +21284,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>4</v>
       </c>
@@ -21023,7 +21301,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>4</v>
       </c>
@@ -21040,7 +21318,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>4</v>
       </c>
@@ -21057,7 +21335,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>4</v>
       </c>
@@ -21074,7 +21352,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>4</v>
       </c>
@@ -21091,7 +21369,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>4</v>
       </c>
@@ -21108,7 +21386,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>4</v>
       </c>
@@ -21125,7 +21403,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>4</v>
       </c>
@@ -21142,7 +21420,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>4</v>
       </c>
@@ -21159,7 +21437,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>4</v>
       </c>
@@ -21176,7 +21454,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>4</v>
       </c>
@@ -21193,7 +21471,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>4</v>
       </c>
@@ -21210,7 +21488,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>4</v>
       </c>
@@ -21227,7 +21505,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>4</v>
       </c>
@@ -21244,7 +21522,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>4</v>
       </c>
@@ -21261,7 +21539,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>4</v>
       </c>
@@ -21278,7 +21556,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>4</v>
       </c>
@@ -21295,7 +21573,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>4</v>
       </c>
@@ -21312,7 +21590,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>4</v>
       </c>
@@ -21329,7 +21607,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>4</v>
       </c>
@@ -21346,7 +21624,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>4</v>
       </c>
@@ -21363,7 +21641,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>4</v>
       </c>
@@ -21380,7 +21658,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>4</v>
       </c>
@@ -21397,7 +21675,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>4</v>
       </c>
@@ -21414,7 +21692,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>4</v>
       </c>
@@ -21431,7 +21709,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>4</v>
       </c>
@@ -21448,7 +21726,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>4</v>
       </c>
@@ -21465,7 +21743,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>4</v>
       </c>
@@ -21482,7 +21760,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>4</v>
       </c>
@@ -21499,7 +21777,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>4</v>
       </c>
@@ -21516,7 +21794,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>4</v>
       </c>
@@ -21533,7 +21811,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>4</v>
       </c>
@@ -21550,7 +21828,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>4</v>
       </c>
@@ -21567,7 +21845,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>4</v>
       </c>
@@ -21584,7 +21862,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>4</v>
       </c>
@@ -21601,7 +21879,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>4</v>
       </c>
@@ -21618,7 +21896,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>4</v>
       </c>
@@ -21635,7 +21913,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>4</v>
       </c>
@@ -21652,7 +21930,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>4</v>
       </c>
@@ -21669,7 +21947,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>4</v>
       </c>
@@ -21686,7 +21964,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>4</v>
       </c>
@@ -21703,7 +21981,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>4</v>
       </c>
@@ -21720,7 +21998,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>4</v>
       </c>
@@ -21737,7 +22015,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>4</v>
       </c>
@@ -21754,7 +22032,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>4</v>
       </c>
@@ -21771,7 +22049,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>4</v>
       </c>
@@ -21788,7 +22066,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>4</v>
       </c>
@@ -21805,7 +22083,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>4</v>
       </c>
@@ -21822,7 +22100,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>4</v>
       </c>
@@ -21839,7 +22117,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>4</v>
       </c>
@@ -21856,7 +22134,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>4</v>
       </c>
@@ -21873,7 +22151,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>4</v>
       </c>
@@ -21890,7 +22168,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>4</v>
       </c>
@@ -21907,7 +22185,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>4</v>
       </c>
@@ -21924,7 +22202,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>4</v>
       </c>
@@ -21941,7 +22219,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>4</v>
       </c>
@@ -21958,7 +22236,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>4</v>
       </c>
@@ -21975,7 +22253,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>4</v>
       </c>
@@ -21992,7 +22270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>4</v>
       </c>
@@ -22009,7 +22287,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>4</v>
       </c>
@@ -22026,7 +22304,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>4</v>
       </c>
@@ -22043,7 +22321,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>4</v>
       </c>
@@ -22060,7 +22338,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>4</v>
       </c>
@@ -22077,7 +22355,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>4</v>
       </c>
@@ -22094,7 +22372,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>4</v>
       </c>
@@ -22111,7 +22389,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>4</v>
       </c>
@@ -22128,7 +22406,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>4</v>
       </c>
@@ -22145,7 +22423,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>4</v>
       </c>
@@ -22162,7 +22440,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>4</v>
       </c>
@@ -22179,7 +22457,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>4</v>
       </c>
@@ -22196,7 +22474,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>4</v>
       </c>
@@ -22213,7 +22491,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>4</v>
       </c>
@@ -22230,7 +22508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>4</v>
       </c>
@@ -22247,7 +22525,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>4</v>
       </c>
@@ -22264,7 +22542,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>4</v>
       </c>
@@ -22281,7 +22559,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>4</v>
       </c>
@@ -22298,7 +22576,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>4</v>
       </c>
@@ -22315,7 +22593,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>4</v>
       </c>
@@ -22332,7 +22610,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>4</v>
       </c>
@@ -22349,7 +22627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>4</v>
       </c>
@@ -22366,7 +22644,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>4</v>
       </c>
@@ -22383,7 +22661,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>4</v>
       </c>
@@ -22400,7 +22678,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>4</v>
       </c>
@@ -22417,7 +22695,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>4</v>
       </c>
@@ -22434,7 +22712,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>4</v>
       </c>
@@ -22451,7 +22729,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>4</v>
       </c>
@@ -22468,7 +22746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>4</v>
       </c>
@@ -22485,7 +22763,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>4</v>
       </c>
@@ -22502,7 +22780,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>4</v>
       </c>
@@ -22519,7 +22797,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>4</v>
       </c>
@@ -22536,7 +22814,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>4</v>
       </c>
@@ -22553,7 +22831,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>4</v>
       </c>
@@ -22570,7 +22848,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>4</v>
       </c>
@@ -22587,7 +22865,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>4</v>
       </c>
@@ -22604,7 +22882,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>4</v>
       </c>
@@ -22621,7 +22899,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>4</v>
       </c>
@@ -22638,7 +22916,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>4</v>
       </c>
@@ -22655,7 +22933,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>4</v>
       </c>
@@ -22672,7 +22950,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>4</v>
       </c>
@@ -22689,7 +22967,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>4</v>
       </c>
@@ -22706,7 +22984,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>4</v>
       </c>
@@ -22723,7 +23001,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>4</v>
       </c>
@@ -22740,7 +23018,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>4</v>
       </c>
@@ -22757,7 +23035,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>4</v>
       </c>
@@ -22774,7 +23052,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>4</v>
       </c>
@@ -22791,7 +23069,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>4</v>
       </c>
@@ -22808,7 +23086,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>4</v>
       </c>
@@ -22825,7 +23103,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>4</v>
       </c>
@@ -22842,7 +23120,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>4</v>
       </c>
@@ -22859,7 +23137,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>4</v>
       </c>
@@ -22876,7 +23154,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>4</v>
       </c>
@@ -22893,7 +23171,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>4</v>
       </c>
@@ -22910,7 +23188,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>4</v>
       </c>
@@ -22927,7 +23205,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>4</v>
       </c>
@@ -22944,7 +23222,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>4</v>
       </c>
@@ -22961,7 +23239,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>4</v>
       </c>
@@ -22978,7 +23256,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>4</v>
       </c>
@@ -22995,7 +23273,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>4</v>
       </c>
@@ -23012,7 +23290,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>4</v>
       </c>
@@ -23029,7 +23307,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>4</v>
       </c>
@@ -23046,7 +23324,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>4</v>
       </c>
@@ -23063,7 +23341,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>4</v>
       </c>
@@ -23080,7 +23358,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>4</v>
       </c>
@@ -23097,7 +23375,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>4</v>
       </c>
@@ -23114,7 +23392,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>4</v>
       </c>
@@ -23131,7 +23409,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>4</v>
       </c>
@@ -23148,7 +23426,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>4</v>
       </c>
@@ -23165,7 +23443,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>4</v>
       </c>
@@ -23182,7 +23460,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>4</v>
       </c>
@@ -23199,7 +23477,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>4</v>
       </c>
@@ -23216,7 +23494,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>4</v>
       </c>
@@ -23233,7 +23511,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>4</v>
       </c>
@@ -23250,7 +23528,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>4</v>
       </c>
@@ -23267,7 +23545,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>4</v>
       </c>
@@ -23284,7 +23562,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>4</v>
       </c>
@@ -23301,7 +23579,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>4</v>
       </c>
@@ -23318,7 +23596,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>4</v>
       </c>
@@ -23335,7 +23613,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>4</v>
       </c>
@@ -23352,7 +23630,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>4</v>
       </c>
@@ -23369,7 +23647,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>4</v>
       </c>
@@ -23386,7 +23664,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>4</v>
       </c>
@@ -23403,7 +23681,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>4</v>
       </c>
@@ -23420,7 +23698,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>4</v>
       </c>
@@ -23437,7 +23715,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>4</v>
       </c>
@@ -23454,7 +23732,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>4</v>
       </c>
@@ -23471,7 +23749,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>4</v>
       </c>
@@ -23488,7 +23766,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>4</v>
       </c>
@@ -23505,7 +23783,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>4</v>
       </c>
@@ -23522,7 +23800,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>4</v>
       </c>
@@ -23539,7 +23817,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>4</v>
       </c>
@@ -23556,7 +23834,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>4</v>
       </c>
@@ -23573,7 +23851,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>4</v>
       </c>
@@ -23590,7 +23868,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>4</v>
       </c>
@@ -23607,7 +23885,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>4</v>
       </c>
@@ -23624,7 +23902,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>4</v>
       </c>
@@ -23641,7 +23919,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>4</v>
       </c>
@@ -23658,7 +23936,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>4</v>
       </c>
@@ -23675,7 +23953,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>4</v>
       </c>
@@ -23692,7 +23970,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>4</v>
       </c>
@@ -23709,7 +23987,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>4</v>
       </c>
@@ -23726,7 +24004,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>4</v>
       </c>
@@ -23743,7 +24021,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>4</v>
       </c>
@@ -23760,7 +24038,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>4</v>
       </c>
@@ -23777,7 +24055,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>4</v>
       </c>
@@ -23794,7 +24072,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>4</v>
       </c>
@@ -23811,7 +24089,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>4</v>
       </c>
@@ -23828,7 +24106,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>4</v>
       </c>
@@ -23845,7 +24123,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>4</v>
       </c>
@@ -23862,7 +24140,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>4</v>
       </c>
